--- a/analysis/speciesloadings.xlsx
+++ b/analysis/speciesloadings.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,25 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Negorashi2011/Downloads/iDNA/Vietnam_leeches/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B0053D09-84AE-DA4F-A3C4-F5924E0E824E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A52859A-A3AA-F54E-80D4-5A99C7E03B72}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1180" windowWidth="27640" windowHeight="19320"/>
+    <workbookView xWindow="5580" yWindow="1180" windowWidth="27640" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="speciesloadings" sheetId="1" r:id="rId1"/>
+    <sheet name="speciesloadings_mammals" sheetId="2" r:id="rId1"/>
+    <sheet name="speciesloadings_lgmammals" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">speciesloadings!$A$1:$C$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">speciesloadings_lgmammals!$A$1:$C$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">speciesloadings_mammals!$A$1:$C$46</definedName>
+    <definedName name="speciesloadings_mammals" localSheetId="0">speciesloadings_mammals!$A$1:$C$46</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{2B71DAB4-2C72-464B-9D4D-1F31FDBAD248}" name="speciesloadings_mammals" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/Negorashi2011/Downloads/iDNA/Vietnam_leeches/analysis/speciesloadings_mammals.tsv">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
-  <si>
-    <t>species</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>MDS1</t>
   </si>
@@ -55,126 +69,129 @@
     <t>Carnivora.Mustelidae.Arctonyx.collaris</t>
   </si>
   <si>
+    <t>Primates.Cercopithecidae.Macaca.arctoides</t>
+  </si>
+  <si>
+    <t>Carnivora.Viverridae.Viverra.UNK4</t>
+  </si>
+  <si>
+    <t>Artiodactyla.Suidae.Sus.scrofa</t>
+  </si>
+  <si>
+    <t>Primates.Cercopithecidae.Macaca.UNK</t>
+  </si>
+  <si>
+    <t>Carnivora.Canidae.Canis.lupus_familiaris</t>
+  </si>
+  <si>
+    <t>Artiodactyla.Bovidae.Capricornis.milneedwardsii</t>
+  </si>
+  <si>
+    <t>Primates.Cercopithecidae.Macaca.assamensis</t>
+  </si>
+  <si>
+    <t>Carnivora.Viverridae.Paguma.larvata</t>
+  </si>
+  <si>
+    <t>Artiodactyla.Cervidae.Muntiacus.muntjak_vaginalis</t>
+  </si>
+  <si>
+    <t>Artiodactyla.Cervidae.Muntiacus.UNK</t>
+  </si>
+  <si>
+    <t>Primates.Cercopithecidae.Macaca.mulatta</t>
+  </si>
+  <si>
+    <t>Carnivora.Mustelidae.Mustela.UNK</t>
+  </si>
+  <si>
+    <t>Carnivora.Herpestidae.Herpestes.UNK</t>
+  </si>
+  <si>
+    <t>Carnivora.Mustelidae.Melogale.moschata</t>
+  </si>
+  <si>
+    <t>Artiodactyla.Cervidae.Muntiacus.truongsonensis</t>
+  </si>
+  <si>
+    <t>Carnivora.Viverridae.Arctictis.UNK</t>
+  </si>
+  <si>
+    <t>Carnivora.Felidae.Prionailurus.bengalensis</t>
+  </si>
+  <si>
+    <t>Carnivora.Felidae.Neofelis.UNK</t>
+  </si>
+  <si>
+    <t>Carnivora.Mustelidae.Martes.flavigula</t>
+  </si>
+  <si>
+    <t>Carnivora.Felidae.UNK</t>
+  </si>
+  <si>
+    <t>Carnivora.Mustelidae.Aonyx.cinereus</t>
+  </si>
+  <si>
+    <t>Carnivora.Mustelidae.Mustela.kathiah</t>
+  </si>
+  <si>
+    <t>Carnivora.Mustelidae.Lutra.lutra</t>
+  </si>
+  <si>
+    <t>Carnivora.Viverridae.Viverra.UNK2</t>
+  </si>
+  <si>
+    <t>rowname</t>
+  </si>
+  <si>
+    <t>Artiodactyla.Bovidae.Bos.taurus</t>
+  </si>
+  <si>
     <t>Erinaceomorpha.Erinaceidae.Hylomys.suillus</t>
   </si>
   <si>
-    <t>Primates.Cercopithecidae.Macaca.arctoides</t>
-  </si>
-  <si>
-    <t>Artiodactyla.Bovidae.Pseudoryx.UNK</t>
-  </si>
-  <si>
-    <t>Carnivora.Viverridae.Viverra.UNK4</t>
-  </si>
-  <si>
-    <t>Artiodactyla.Suidae.Sus.scrofa</t>
-  </si>
-  <si>
-    <t>Primates.Cercopithecidae.Macaca.UNK</t>
-  </si>
-  <si>
-    <t>Carnivora.Canidae.Canis.lupus_familiaris</t>
-  </si>
-  <si>
-    <t>Artiodactyla.Bovidae.Capricornis.milneedwardsii</t>
-  </si>
-  <si>
-    <t>Primates.Cercopithecidae.Macaca.assamensis</t>
-  </si>
-  <si>
-    <t>Carnivora.Viverridae.Paguma.larvata</t>
+    <t>Lagomorpha.Leporidae.Nesolagus.timminsi</t>
   </si>
   <si>
     <t>Rodentia.Hystricidae.Hystrix.UNK</t>
   </si>
   <si>
-    <t>Artiodactyla.Cervidae.Muntiacus.muntjak_vaginalis</t>
-  </si>
-  <si>
-    <t>Artiodactyla.Cervidae.Muntiacus.UNK</t>
-  </si>
-  <si>
-    <t>Primates.Cercopithecidae.Macaca.mulatta</t>
-  </si>
-  <si>
-    <t>Carnivora.Mustelidae.Mustela.UNK</t>
+    <t>Rodentia.Muridae.Niviventer.UNK</t>
+  </si>
+  <si>
+    <t>Rodentia.Sciuridae.Callosciurus.erythraeus</t>
+  </si>
+  <si>
+    <t>Rodentia.Sciuridae.Callosciurus.UNK1</t>
+  </si>
+  <si>
+    <t>Rodentia.Sciuridae.Callosciurus.UNK2</t>
+  </si>
+  <si>
+    <t>Rodentia.Sciuridae.Hylopetes.UNK1</t>
+  </si>
+  <si>
+    <t>Rodentia.Sciuridae.Petaurista.philippensis</t>
+  </si>
+  <si>
+    <t>Rodentia.Sciuridae.Ratufa.bicolor</t>
   </si>
   <si>
     <t>Rodentia.Sciuridae.Tamiops.UNK</t>
   </si>
   <si>
-    <t>Carnivora.Herpestidae.Herpestes.UNK</t>
-  </si>
-  <si>
-    <t>Carnivora.Mustelidae.Melogale.moschata</t>
-  </si>
-  <si>
-    <t>Artiodactyla.Cervidae.Muntiacus.truongsonensis</t>
-  </si>
-  <si>
-    <t>Rodentia.Sciuridae.Callosciurus.UNK1</t>
-  </si>
-  <si>
-    <t>Carnivora.Viverridae.Arctictis.UNK</t>
+    <t>Rodentia.Spalacidae.Rhizomys.pruinosus</t>
   </si>
   <si>
     <t>Scandentia.Tupaiidae.Tupaia.belangeri</t>
-  </si>
-  <si>
-    <t>Carnivora.Felidae.Prionailurus.bengalensis</t>
-  </si>
-  <si>
-    <t>Carnivora.Felidae.Neofelis.UNK</t>
-  </si>
-  <si>
-    <t>Rodentia.Spalacidae.Rhizomys.pruinosus</t>
-  </si>
-  <si>
-    <t>Carnivora.Mustelidae.Martes.flavigula</t>
-  </si>
-  <si>
-    <t>Rodentia.Muridae.Niviventer.UNK</t>
-  </si>
-  <si>
-    <t>Lagomorpha.Leporidae.Nesolagus.timminsi</t>
-  </si>
-  <si>
-    <t>Carnivora.Felidae.UNK</t>
-  </si>
-  <si>
-    <t>Rodentia.Sciuridae.Callosciurus.erythraeus</t>
-  </si>
-  <si>
-    <t>Carnivora.Mustelidae.Aonyx.cinereus</t>
-  </si>
-  <si>
-    <t>Rodentia.Sciuridae.Ratufa.bicolor</t>
-  </si>
-  <si>
-    <t>Rodentia.Sciuridae.Petaurista.philippensis</t>
-  </si>
-  <si>
-    <t>Carnivora.Mustelidae.Mustela.kathiah</t>
-  </si>
-  <si>
-    <t>Carnivora.Mustelidae.Lutra.lutra</t>
-  </si>
-  <si>
-    <t>Carnivora.Viverridae.Viverra.UNK2</t>
-  </si>
-  <si>
-    <t>Rodentia.Sciuridae.Callosciurus.UNK2</t>
-  </si>
-  <si>
-    <t>Rodentia.Sciuridae.Hylopetes.UNK1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -659,11 +676,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -720,6 +741,1097 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>speciesloadings_lgmammals!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MDS2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>speciesloadings_lgmammals!$B$2:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-0.78780637495259198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.65190424636947497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.64935063813898897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.34255623177382899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.31687128403356701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.31202067031491099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.31136297152711301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.30702546081222598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.26376217771577498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.26043314389574501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.14098183044694701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.127988959493992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6326665126104902E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8275529270243194E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3415438012709906E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.117105736673183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15007459320817201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16755234380901801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25749755633986099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.29329880000625702</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.29918405307630103</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.34703050918446998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.36120662274757098</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36384148029549401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.445970213167805</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.476599890596557</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.54460672704034196</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63710742444826696</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.67294123978459097</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.67713708576407805</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.68824409008579901</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.16772280509736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>speciesloadings_lgmammals!$C$2:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-7.7357757914498296E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.58274667066169294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.1150898173973399E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13668415068444201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.44955072140734897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.45245220527261099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.35731905398029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3198703533806103E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.3628565133298499E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91943428026349205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20314361339732301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.18480419571695</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1477920018699701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.111199390878868</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28678018908098701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.124733056782401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.30773550365249502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.65972615769833298</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.116005065225046</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.38130162396765199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.14063576351860799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.35237633023046899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.7258330655597099E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.44912994061278999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.61539497451516201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46626635603590699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.27075354617918301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4254013735477999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.07045665603399E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.47394454792013901</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.90272669240937498</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.35740493005601998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EA9-F54F-88CB-8087706A5D1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1186412640"/>
+        <c:axId val="1186414320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1186412640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1186414320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1186414320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1186412640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>6</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CE8AF4-9734-8049-80F3-6451F9E18884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="speciesloadings_mammals" connectionId="1" xr16:uid="{1D43E7B1-D67B-6744-9079-E0545A66C488}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1018,14 +2130,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DDE737-7F49-364C-9CAE-C82620A67D28}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1035,516 +2147,963 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>-0.91162916000000005</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.0103264009999999</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>-0.89777172728662002</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.0163793599250199</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-0.82530744304590098</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.37131427546802798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>-0.77153539623672696</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-0.23464887368180201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>-0.83941191999999998</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.39592105300000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>-0.80889752999999998</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-0.21489161400000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="4">
+        <v>-0.76884540537541302</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-0.24959501679717599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
-        <v>-0.79147507900000003</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-0.22839258600000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-0.66623280799999995</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.75039597999999996</v>
+      <c r="B6" s="6">
+        <v>-0.67925350455936595</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.70278420752894399</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>-0.54460524099999996</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.1171813289999999</v>
+      <c r="B7" s="4">
+        <v>-0.57840661927236103</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-0.50283226535873304</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-0.51102318199999996</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-0.45152245899999999</v>
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-0.57384658684391499</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.0979163936365699</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>-0.48622755600000001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-1.1894232520000001</v>
+        <v>35</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-0.41246351050056601</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-1.2159267331919299</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-0.31581442100000001</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.117612588</v>
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-0.360112624602348</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-0.36094774760184201</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>-0.29028031900000001</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-0.49150093299999997</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-0.34108169050208997</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.16360322942232899</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-0.219947377</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-0.41848117099999999</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-0.23525125116894499</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-0.41210098908970599</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>-0.21922003100000001</v>
+        <v>-0.227910164979826</v>
       </c>
       <c r="C13" s="2">
-        <v>-9.9749645999999997E-2</v>
+        <v>0.173561036088484</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>-0.171930731</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.18727476600000001</v>
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6">
+        <v>-0.213966146442605</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-9.63199341733742E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <v>-2.4507741E-2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-0.15856410500000001</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>-0.10041170768447499</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.17472547989742299</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2">
-        <v>-1.8018512E-2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.29945222799999999</v>
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>-3.7376740237924699E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-0.141749682390928</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2">
-        <v>-1.3417261E-2</v>
+        <v>-1.7817620730509302E-2</v>
       </c>
       <c r="C17" s="2">
-        <v>0.197110857</v>
+        <v>9.04528742837101E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2">
-        <v>-1.2334126000000001E-2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5.4816678000000001E-2</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-1.1120958567901599E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.287158550516456</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
-        <v>-4.3229829999999999E-3</v>
-      </c>
-      <c r="C19" s="2">
-        <v>5.2164206999999997E-2</v>
+      <c r="B19" s="4">
+        <v>4.8651387010581696E-3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-0.31039043666819399</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1.5074208E-2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.60464869899999996</v>
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>7.07075896549751E-3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5.43633769898378E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2">
-        <v>7.0604808000000005E-2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.73262125899999997</v>
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3.5225905153484199E-2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.61949394956801695</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2">
-        <v>7.8318892000000001E-2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>6.7067220999999996E-2</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5.0322979879546197E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6.7025396545375801E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.11510116200000001</v>
-      </c>
-      <c r="C23" s="2">
-        <v>-0.24488396100000001</v>
+      <c r="A23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6">
+        <v>6.5887885419206593E-2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.73670477436489401</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.132010551</v>
-      </c>
-      <c r="C24" s="2">
-        <v>-0.27309003100000001</v>
+        <v>21</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.119584060637752</v>
+      </c>
+      <c r="C24" s="4">
+        <v>-1.2996730311416399E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2">
-        <v>0.13687873</v>
+        <v>0.153155193863591</v>
       </c>
       <c r="C25" s="2">
-        <v>3.9677480000000001E-3</v>
+        <v>-0.29441330537601501</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.16744789299999999</v>
-      </c>
-      <c r="C26" s="2">
-        <v>-6.9079299999999996E-2</v>
+        <v>22</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.178435505983148</v>
+      </c>
+      <c r="C26" s="4">
+        <v>-9.6199151223335597E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.19225129599999999</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.60642211999999995</v>
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.186087681108729</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.63482631772151998</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2">
-        <v>0.22826850700000001</v>
+        <v>0.228515053883285</v>
       </c>
       <c r="C28" s="2">
-        <v>-1.142043929</v>
+        <v>-1.1673056618303199</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.26939059599999998</v>
-      </c>
-      <c r="C29" s="2">
-        <v>-0.118611296</v>
+        <v>24</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.27504443330800898</v>
+      </c>
+      <c r="C29" s="4">
+        <v>-0.12016849677654701</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.27621668399999999</v>
-      </c>
-      <c r="C30" s="2">
-        <v>-0.26676523899999999</v>
+        <v>25</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.29186018669362301</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.42184207272493901</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2">
-        <v>0.29637857200000001</v>
+        <v>0.29262608331137901</v>
       </c>
       <c r="C31" s="2">
-        <v>0.419149928</v>
+        <v>-0.25366444911359898</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.31124176399999998</v>
-      </c>
-      <c r="C32" s="2">
-        <v>3.9835545E-2</v>
+        <v>26</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.31386125669006198</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4.2961341313792097E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2">
-        <v>0.41711442399999998</v>
+        <v>0.385243513053249</v>
       </c>
       <c r="C33" s="2">
-        <v>-7.5074724999999995E-2</v>
+        <v>-0.39285666947188902</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2">
-        <v>0.42401487599999999</v>
+        <v>0.421727642223304</v>
       </c>
       <c r="C34" s="2">
-        <v>-3.2345453000000003E-2</v>
+        <v>-4.3828495659031998E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
-        <v>0.42609216799999999</v>
+        <v>0.45503920774016898</v>
       </c>
       <c r="C35" s="2">
-        <v>-0.39194194900000001</v>
+        <v>8.9019656866530794E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0.44562722999999999</v>
-      </c>
-      <c r="C36" s="2">
-        <v>-0.19432801599999999</v>
+        <v>36</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.46368497204911702</v>
+      </c>
+      <c r="C36" s="4">
+        <v>-0.17581956071903099</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0.46514135299999998</v>
-      </c>
-      <c r="C37" s="2">
-        <v>-2.3981115000000001E-2</v>
+        <v>27</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.471732900305039</v>
+      </c>
+      <c r="C37" s="4">
+        <v>-9.5497485628128098E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.474161373</v>
-      </c>
-      <c r="C38" s="2">
-        <v>9.9236187000000003E-2</v>
+        <v>28</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.48178998508226201</v>
+      </c>
+      <c r="C38" s="4">
+        <v>-5.4325739668872899E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.52582311800000003</v>
-      </c>
-      <c r="C39" s="2">
-        <v>-0.46739256800000001</v>
+        <v>29</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.54103237106790203</v>
+      </c>
+      <c r="C39" s="4">
+        <v>-0.47144814868093599</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>0.68285670399999998</v>
+        <v>0.54951998170279504</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.43432807699999998</v>
+        <v>-0.53459311988109504</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2">
-        <v>0.68655826200000003</v>
+        <v>0.67108952876434103</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.58642581500000002</v>
+        <v>-0.36132377908774299</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.72925315000000002</v>
-      </c>
-      <c r="C42" s="2">
-        <v>-0.442068507</v>
+        <v>30</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.68152713537436205</v>
+      </c>
+      <c r="C42" s="4">
+        <v>-0.46498028532568603</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0.75999348</v>
-      </c>
-      <c r="C43" s="2">
-        <v>-6.425749E-2</v>
+        <v>31</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.75044726747222501</v>
+      </c>
+      <c r="C43" s="4">
+        <v>-7.0407942297387602E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0.81192786699999997</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.53124945800000001</v>
+        <v>32</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.78809549649337896</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.54694343899612596</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2">
-        <v>1.034369691</v>
+        <v>1.0636766004370799</v>
       </c>
       <c r="C45" s="2">
-        <v>-1.009765531</v>
+        <v>-0.97374446605270004</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2">
-        <v>1.4525425540000001</v>
+        <v>1.9574990330350199</v>
       </c>
       <c r="C46" s="2">
-        <v>-1.834418876</v>
+        <v>-0.88116180831327195</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C46">
+  <autoFilter ref="A1:C46" xr:uid="{15D5B993-EDFD-A441-A1F1-8A3E420776AC}">
     <sortState ref="A2:C46">
       <sortCondition ref="B1:B46"/>
     </sortState>
   </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="43.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-0.78780637495259198</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-7.7357757914498296E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-0.65190424636947497</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-0.58274667066169294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-0.64935063813898897</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-9.1150898173973399E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-0.34255623177382899</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.13668415068444201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-0.31687128403356701</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-0.44955072140734897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-0.31202067031491099</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-0.45245220527261099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-0.31136297152711301</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.35731905398029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-0.30702546081222598</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.3198703533806103E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-0.26376217771577498</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-8.3628565133298499E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-0.26043314389574501</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.91943428026349205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-0.14098183044694701</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.20314361339732301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-0.127988959493992</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-0.18480419571695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5.6326665126104902E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.1477920018699701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>8.8275529270243194E-2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.111199390878868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>9.3415438012709906E-2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.28678018908098701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.117105736673183</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-0.124733056782401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.15007459320817201</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-0.30773550365249502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.16755234380901801</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-0.65972615769833298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.25749755633986099</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.116005065225046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.29329880000625702</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-0.38130162396765199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.29918405307630103</v>
+      </c>
+      <c r="C22" s="4">
+        <v>-0.14063576351860799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.34703050918446998</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-0.35237633023046899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.36120662274757098</v>
+      </c>
+      <c r="C24" s="4">
+        <v>-8.7258330655597099E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.36384148029549401</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.44912994061278999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.445970213167805</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.61539497451516201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.476599890596557</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.46626635603590699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.54460672704034196</v>
+      </c>
+      <c r="C28" s="4">
+        <v>-0.27075354617918301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.63710742444826696</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2.4254013735477999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.67294123978459097</v>
+      </c>
+      <c r="C30" s="4">
+        <v>9.07045665603399E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.67713708576407805</v>
+      </c>
+      <c r="C31" s="4">
+        <v>-0.47394454792013901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.68824409008579901</v>
+      </c>
+      <c r="C32" s="4">
+        <v>-0.90272669240937498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1.16772280509736</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.35740493005601998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C46" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:C46">
+      <sortCondition ref="B1:B46"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:C33">
+    <sortCondition ref="B2:B33"/>
+    <sortCondition ref="C2:C33"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/analysis/speciesloadings.xlsx
+++ b/analysis/speciesloadings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Negorashi2011/Downloads/iDNA/Vietnam_leeches/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A52859A-A3AA-F54E-80D4-5A99C7E03B72}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7FB070-E00A-DD48-BC12-BA174089D4A1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1180" windowWidth="27640" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="1180" windowWidth="28360" windowHeight="22820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="speciesloadings_mammals" sheetId="2" r:id="rId1"/>
@@ -27,8 +27,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{2B71DAB4-2C72-464B-9D4D-1F31FDBAD248}" name="speciesloadings_mammals" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Negorashi2011/Downloads/iDNA/Vietnam_leeches/analysis/speciesloadings_mammals.tsv">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="speciesloadings_mammals" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/Negorashi2011/Downloads/iDNA/Vietnam_leeches/analysis/speciesloadings_mammals.tsv">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -676,7 +676,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -684,7 +684,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1831,7 +1830,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="speciesloadings_mammals" connectionId="1" xr16:uid="{1D43E7B1-D67B-6744-9079-E0545A66C488}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="speciesloadings_mammals" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2137,7 +2136,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2182,10 +2181,10 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>-0.77153539623672696</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>-0.23464887368180201</v>
       </c>
     </row>
@@ -2281,10 +2280,10 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>-0.227910164979826</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>0.173561036088484</v>
       </c>
     </row>
@@ -2325,10 +2324,10 @@
       <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>-1.7817620730509302E-2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>9.04528742837101E-2</v>
       </c>
     </row>
@@ -2413,10 +2412,10 @@
       <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>0.153155193863591</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>-0.29441330537601501</v>
       </c>
     </row>
@@ -2446,10 +2445,10 @@
       <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>0.228515053883285</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>-1.1673056618303199</v>
       </c>
     </row>
@@ -2479,10 +2478,10 @@
       <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>0.29262608331137901</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>-0.25366444911359898</v>
       </c>
     </row>
@@ -2501,10 +2500,10 @@
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>0.385243513053249</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>-0.39285666947188902</v>
       </c>
     </row>
@@ -2512,10 +2511,10 @@
       <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>0.421727642223304</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <v>-4.3828495659031998E-2</v>
       </c>
     </row>
@@ -2523,10 +2522,10 @@
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>0.45503920774016898</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>8.9019656866530794E-2</v>
       </c>
     </row>
@@ -2578,10 +2577,10 @@
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>0.54951998170279504</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>-0.53459311988109504</v>
       </c>
     </row>
@@ -2589,10 +2588,10 @@
       <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>0.67108952876434103</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>-0.36132377908774299</v>
       </c>
     </row>
@@ -2633,10 +2632,10 @@
       <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <v>1.0636766004370799</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>-0.97374446605270004</v>
       </c>
     </row>
@@ -2644,10 +2643,10 @@
       <c r="A46" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="4">
         <v>1.9574990330350199</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="4">
         <v>-0.88116180831327195</v>
       </c>
     </row>
